--- a/data/lod/data.xlsx
+++ b/data/lod/data.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\lod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C064EEF-8A21-4255-867F-23CE0B5D8D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1559FF-5FDF-4DA7-BCC8-D8C5EE5E5333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43365" yWindow="1920" windowWidth="14400" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
-    <workbookView xWindow="29085" yWindow="1950" windowWidth="14430" windowHeight="13230" xr2:uid="{6637ECA0-544A-4DDD-9500-8BEA757A765F}"/>
+    <workbookView xWindow="29085" yWindow="1950" windowWidth="14430" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="43365" yWindow="1920" windowWidth="14400" windowHeight="13230" xr2:uid="{6637ECA0-544A-4DDD-9500-8BEA757A765F}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>from</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>lod-cidoc-destruction</t>
+  </si>
+  <si>
+    <t>prj</t>
+  </si>
+  <si>
+    <t>palmyra</t>
   </si>
 </sst>
 </file>
@@ -947,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="D16" sqref="D16"/>
@@ -958,142 +964,176 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
         <v>42239</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1104,14 +1144,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
     <sheetView zoomScaleNormal="100" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,10 +1161,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1130,10 +1175,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1141,10 +1189,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1152,10 +1203,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1163,10 +1217,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1174,10 +1231,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1185,10 +1245,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1196,10 +1259,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1207,10 +1273,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1218,6 +1287,9 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data/lod/data.xlsx
+++ b/data/lod/data.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\lod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1559FF-5FDF-4DA7-BCC8-D8C5EE5E5333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2241E5-6BA7-4019-B0B5-DA33FA7BCD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29085" yWindow="1950" windowWidth="14430" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
-    <workbookView xWindow="43365" yWindow="1920" windowWidth="14400" windowHeight="13230" xr2:uid="{6637ECA0-544A-4DDD-9500-8BEA757A765F}"/>
+    <workbookView xWindow="43365" yWindow="1920" windowWidth="14400" windowHeight="13230" activeTab="1" xr2:uid="{6637ECA0-544A-4DDD-9500-8BEA757A765F}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="2" r:id="rId1"/>
     <sheet name="edges" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>from</t>
   </si>
@@ -112,13 +125,61 @@
   </si>
   <si>
     <t>palmyra</t>
+  </si>
+  <si>
+    <t>thera</t>
+  </si>
+  <si>
+    <t>Burnouf</t>
+  </si>
+  <si>
+    <t>aut-burnouf</t>
+  </si>
+  <si>
+    <t>Fouque</t>
+  </si>
+  <si>
+    <t>aut-fouque</t>
+  </si>
+  <si>
+    <t>Longperrier</t>
+  </si>
+  <si>
+    <t>aut-longperrier</t>
+  </si>
+  <si>
+    <t>E21 Person</t>
+  </si>
+  <si>
+    <t>P138 has representation</t>
+  </si>
+  <si>
+    <t>E5 Event</t>
+  </si>
+  <si>
+    <t>Burnouff date the eruption</t>
+  </si>
+  <si>
+    <t>Fouque date the eruption</t>
+  </si>
+  <si>
+    <t>Longperrier date the eruption</t>
+  </si>
+  <si>
+    <t>-2000/-1800</t>
+  </si>
+  <si>
+    <t>-2000/-1500</t>
+  </si>
+  <si>
+    <t>-1699/-1401</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +310,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -595,9 +662,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -953,12 +1021,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -966,7 +1034,7 @@
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1137,19 +1205,200 @@
         <v>27</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
-    <sheetView zoomScaleNormal="100" workbookViewId="1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1293,6 +1542,90 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/lod/data.xlsx
+++ b/data/lod/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\lod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2241E5-6BA7-4019-B0B5-DA33FA7BCD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A274E74-8637-40CA-922E-CEF41BD644E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29085" yWindow="1950" windowWidth="14430" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
     <workbookView xWindow="43365" yWindow="1920" windowWidth="14400" windowHeight="13230" activeTab="1" xr2:uid="{6637ECA0-544A-4DDD-9500-8BEA757A765F}"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>from</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>-1699/-1401</t>
+  </si>
+  <si>
+    <t>P11 had participant</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1027,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A21" activeCellId="2" sqref="A15 A18 A21"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="D16" sqref="D16"/>
@@ -1391,13 +1394,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,43 +1589,85 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
         <v>8</v>
       </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/lod/data.xlsx
+++ b/data/lod/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\lod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A274E74-8637-40CA-922E-CEF41BD644E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CF9C5-57EC-4D21-B8A4-ACBAC7077462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29085" yWindow="1950" windowWidth="14430" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
     <workbookView xWindow="43365" yWindow="1920" windowWidth="14400" windowHeight="13230" activeTab="1" xr2:uid="{6637ECA0-544A-4DDD-9500-8BEA757A765F}"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>from</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>P11 had participant</t>
+  </si>
+  <si>
+    <t>Thera eruption</t>
+  </si>
+  <si>
+    <t>E2 Temporal Entity</t>
+  </si>
+  <si>
+    <t>P3 has note</t>
+  </si>
+  <si>
+    <t>event-eruption</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" activeCellId="2" sqref="A15 A18 A21"/>
+      <selection activeCell="A15" activeCellId="1" sqref="A12 A15"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="D16" sqref="D16"/>
@@ -1287,7 +1299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1329,7 +1341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -1343,7 +1355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1357,7 +1369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
@@ -1371,7 +1383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
@@ -1383,6 +1395,37 @@
       </c>
       <c r="D23" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1394,16 +1437,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1671,6 +1720,62 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
